--- a/data/trans_bre/P20-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>30,7%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,4%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,41; 4,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 11,32</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 5,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-53,97; 217,98</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,46; 308,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 210,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,49%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 7,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 6,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 5,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; -0,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 196,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 106,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 199,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,26; -4,84</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>248,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 7,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 4,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,88; 489,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; 138,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>79,95; 670,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,17; 70,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,11%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 7,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 4,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 479,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 144,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,85; 88,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,38; 133,97</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,0%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 8,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 8,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 3,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,61; 201,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,52; 218,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,0; 242,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,1; 262,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,34%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 11,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 8,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 8,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 3,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,09; 490,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; 241,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,09; 159,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,47; 45,81</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 6,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 5,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 126,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 194,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,37; 209,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,88; 74,95</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 5,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 4,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 3,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 2,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,69; 202,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 137,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,41; 102,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,87; 127,52</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 4,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 4,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 1,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,22; 120,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,37; 87,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,11; 93,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,13; 30,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>68,68%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 9,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,46</t>
+          <t>-0,48; 5,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; 141,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 210,82</t>
+          <t>-12,13; 223,83</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,49%</t>
+          <t>-41,77%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,38; -0,23</t>
+          <t>-6,09; -0,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,26; -4,84</t>
+          <t>-64,0; -0,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,66</t>
+          <t>-3,19; 4,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 70,74</t>
+          <t>-30,67; 73,81</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>83,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>-4,89%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,48</t>
+          <t>0,73; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,39</t>
+          <t>-5,56; 4,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 144,99</t>
+          <t>9,02; 218,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; 133,97</t>
+          <t>-52,04; 88,79</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,0%</t>
+          <t>64,2%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,69</t>
+          <t>-0,97; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 262,22</t>
+          <t>-31,51; 263,4</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,13</t>
+          <t>-4,98; 3,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,47; 45,81</t>
+          <t>-42,75; 46,54</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,58</t>
+          <t>-3,51; 3,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 74,95</t>
+          <t>-51,23; 66,96</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>59,6%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,75</t>
+          <t>-0,46; 3,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 127,52</t>
+          <t>-14,43; 294,13</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,55</t>
+          <t>-0,88; 1,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 30,01</t>
+          <t>-14,02; 42,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,74</t>
+          <t>-2,15; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 9,23</t>
+          <t>-1,18; 9,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 11,32</t>
+          <t>2,02; 11,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 5,59</t>
+          <t>-0,63; 5,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,97; 217,98</t>
+          <t>-45,97; 222,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 141,77</t>
+          <t>-10,52; 161,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 308,06</t>
+          <t>20,67; 304,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 223,83</t>
+          <t>-13,8; 233,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,23</t>
+          <t>0,99; 7,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,61</t>
+          <t>-1,07; 6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,48</t>
+          <t>-0,2; 5,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -0,08</t>
+          <t>-6,75; -0,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 196,31</t>
+          <t>11,8; 192,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 106,51</t>
+          <t>-12,73; 104,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 199,94</t>
+          <t>-6,56; 205,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,0; -0,96</t>
+          <t>-68,25; -5,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,42</t>
+          <t>-0,43; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,5</t>
+          <t>-1,71; 7,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,6</t>
+          <t>3,62; 11,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,81</t>
+          <t>-2,88; 4,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 489,85</t>
+          <t>-24,8; 534,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 138,19</t>
+          <t>-18,51; 134,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,95; 670,25</t>
+          <t>76,38; 607,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 73,81</t>
+          <t>-27,38; 75,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,83</t>
+          <t>0,85; 6,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,29</t>
+          <t>0,52; 8,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,8</t>
+          <t>-3,61; 4,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,78</t>
+          <t>-6,32; 4,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 479,49</t>
+          <t>24,54; 616,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 218,64</t>
+          <t>7,09; 221,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 88,8</t>
+          <t>-39,75; 79,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 88,79</t>
+          <t>-59,58; 74,16</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,03</t>
+          <t>-2,65; 8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,79</t>
+          <t>-1,98; 8,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 5,42</t>
+          <t>-3,03; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,74</t>
+          <t>-0,82; 4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 201,77</t>
+          <t>-33,59; 219,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 218,06</t>
+          <t>-29,91; 215,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,0; 242,68</t>
+          <t>-57,01; 239,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,51; 263,4</t>
+          <t>-27,67; 331,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,88</t>
+          <t>2,99; 11,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,49</t>
+          <t>-0,74; 8,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,48</t>
+          <t>-1,81; 8,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,18</t>
+          <t>-4,56; 3,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,09; 490,46</t>
+          <t>44,45; 514,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 241,22</t>
+          <t>-10,96; 235,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 159,7</t>
+          <t>-23,15; 169,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 46,54</t>
+          <t>-40,83; 50,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,71</t>
+          <t>-0,31; 5,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,77</t>
+          <t>1,41; 6,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,91</t>
+          <t>0,56; 5,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,36</t>
+          <t>-4,4; 3,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 126,45</t>
+          <t>-4,57; 124,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 194,34</t>
+          <t>21,3; 199,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 209,14</t>
+          <t>7,5; 234,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 66,96</t>
+          <t>-56,22; 61,24</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,28</t>
+          <t>0,86; 5,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,88</t>
+          <t>0,18; 5,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,71</t>
+          <t>-1,03; 3,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,79</t>
+          <t>-0,29; 3,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,69; 202,6</t>
+          <t>17,05; 224,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 137,04</t>
+          <t>2,12; 138,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 102,75</t>
+          <t>-17,11; 114,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 294,13</t>
+          <t>-9,87; 290,09</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,39</t>
+          <t>2,16; 4,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,7</t>
+          <t>1,98; 4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,03</t>
+          <t>1,7; 4,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,93</t>
+          <t>-0,81; 1,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>44,22; 120,32</t>
+          <t>44,27; 120,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,37; 87,04</t>
+          <t>29,09; 87,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>30,11; 93,92</t>
+          <t>33,15; 95,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 42,13</t>
+          <t>-13,47; 41,27</t>
         </is>
       </c>
     </row>
